--- a/data/trust_score_ranking.xlsx
+++ b/data/trust_score_ranking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victor/Documents/Projects/Game-Theory-and-Social-Norms-Slides/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F716D0F6-471D-42CA-B36B-40F90E629EDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8024150D-6D5D-4447-A3B8-204D2C07A247}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="177">
   <si>
     <t>Trust Score</t>
   </si>
@@ -546,6 +546,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Venezuela</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>petrol</t>
+  </si>
+  <si>
+    <t>Columns:</t>
+  </si>
+  <si>
+    <t>gdp</t>
   </si>
 </sst>
 </file>
@@ -984,32 +1002,32 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1026,7 +1044,7 @@
         <v>21894.169240755389</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1043,7 +1061,7 @@
         <v>1781.8399132208201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1060,7 +1078,7 @@
         <v>26148.646468992876</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1077,7 +1095,7 @@
         <v>35020.031734759265</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1094,7 +1112,7 @@
         <v>23135.764267500665</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1111,7 +1129,7 @@
         <v>165.27336717040259</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1128,7 +1146,7 @@
         <v>29797.761222072928</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1145,7 +1163,7 @@
         <v>21886.002089798079</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1162,7 +1180,7 @@
         <v>20389.612014638125</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1179,7 +1197,7 @@
         <v>35312.103798606913</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1196,7 +1214,7 @@
         <v>325.51123337870035</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1213,7 +1231,7 @@
         <v>282.96614993381462</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1230,7 +1248,7 @@
         <v>25936.764432087712</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1247,7 +1265,7 @@
         <v>22187.447809496447</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1264,7 +1282,7 @@
         <v>22784.227143964919</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1281,7 +1299,7 @@
         <v>299.41492651444918</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1298,7 +1316,7 @@
         <v>12927.157731003861</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1315,7 +1333,7 @@
         <v>3767.8562735131827</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1332,7 +1350,7 @@
         <v>15906.138182887833</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1349,7 +1367,7 @@
         <v>831.33450363444956</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1366,7 +1384,7 @@
         <v>21748.289933161766</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1383,7 +1401,7 @@
         <v>14915.682831824182</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1400,7 +1418,7 @@
         <v>9941.9894904418634</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1417,7 +1435,7 @@
         <v>20151.680301857265</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1434,7 +1452,7 @@
         <v>2995.162525771545</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1451,7 +1469,7 @@
         <v>20760.784648706893</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1468,7 +1486,7 @@
         <v>26093.909005399113</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1485,7 +1503,7 @@
         <v>901.95235134812117</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1502,7 +1520,7 @@
         <v>43947.694055759239</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1519,7 +1537,7 @@
         <v>11835.765932094231</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1536,7 +1554,7 @@
         <v>9682.8436079958883</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1553,7 +1571,7 @@
         <v>11404.664307849236</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1570,7 +1588,7 @@
         <v>24810.317737670182</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1587,7 +1605,7 @@
         <v>13147.204591998523</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1604,7 +1622,7 @@
         <v>21300.560566394332</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1621,7 +1639,7 @@
         <v>16790.239333429257</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1638,7 +1656,7 @@
         <v>1966.0809346932349</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1655,7 +1673,7 @@
         <v>19808.296323772021</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1672,7 +1690,7 @@
         <v>14688.004008342477</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1689,7 +1707,7 @@
         <v>298.36017304257194</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1706,7 +1724,7 @@
         <v>10034.803481546318</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1723,7 +1741,7 @@
         <v>1300.8000374515807</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1740,7 +1758,7 @@
         <v>9436.62008094269</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1757,7 +1775,7 @@
         <v>8373.2331922749618</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1774,7 +1792,7 @@
         <v>352.60928423645254</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1791,7 +1809,7 @@
         <v>2945.7427428423548</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1808,7 +1826,7 @@
         <v>6597.9655830879101</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1825,7 +1843,7 @@
         <v>2721.6116488770067</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1842,7 +1860,7 @@
         <v>1190.6019260870787</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1859,7 +1877,7 @@
         <v>2619.1666326509526</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1876,7 +1894,7 @@
         <v>10820.380539626467</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1893,7 +1911,7 @@
         <v>573.02791112001535</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1910,7 +1928,7 @@
         <v>553.14434850868849</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1927,7 +1945,7 @@
         <v>2279.7169989172839</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1944,7 +1962,7 @@
         <v>16929.981428436975</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1961,7 +1979,7 @@
         <v>516.35832778038809</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1978,7 +1996,7 @@
         <v>5394.4163722408948</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1995,7 +2013,7 @@
         <v>3962.4593130730309</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2012,7 +2030,7 @@
         <v>1254.2244610185073</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2029,7 +2047,7 @@
         <v>3756.6480700282336</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2046,7 +2064,7 @@
         <v>2126.5764106825</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2063,7 +2081,7 @@
         <v>1930.1081261108768</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2080,7 +2098,7 @@
         <v>11100.078957165311</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2097,7 +2115,7 @@
         <v>16883.703050541659</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2114,7 +2132,7 @@
         <v>7338.3472528783132</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2131,7 +2149,7 @@
         <v>1997.083126499437</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2148,7 +2166,7 @@
         <v>1237.6295216431706</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2165,7 +2183,7 @@
         <v>335.74754093085573</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2182,7 +2200,7 @@
         <v>517.71342489253698</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2199,7 +2217,7 @@
         <v>491.66891019981102</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2216,7 +2234,7 @@
         <v>19663.742038811171</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2233,7 +2251,7 @@
         <v>10560.154795806922</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2250,7 +2268,7 @@
         <v>5316.6948555154668</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2267,7 +2285,7 @@
         <v>15708.483548541461</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2284,7 +2302,7 @@
         <v>2419.1371975198967</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2301,7 +2319,7 @@
         <v>3138.2817991855459</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2318,7 +2336,7 @@
         <v>771.61229330589356</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2335,7 +2353,7 @@
         <v>2047.3926077382575</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2352,7 +2370,7 @@
         <v>9827.7572779682887</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2369,7 +2387,7 @@
         <v>274.34003642141829</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2386,7 +2404,7 @@
         <v>4508.9973912249025</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2403,7 +2421,7 @@
         <v>713.55439785702015</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2420,7 +2438,7 @@
         <v>549.43937839426212</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2437,7 +2455,7 @@
         <v>3164.3259282308272</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2454,7 +2472,7 @@
         <v>3359.698817003462</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2471,7 +2489,7 @@
         <v>1193.0509875113471</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2488,7 +2506,7 @@
         <v>272.83983352863737</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2505,7 +2523,7 @@
         <v>202.59363323940437</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2522,7 +2540,7 @@
         <v>433.20697725399879</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2539,7 +2557,7 @@
         <v>843.45353390157038</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2556,7 +2574,7 @@
         <v>5711.7579081674894</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2573,7 +2591,7 @@
         <v>320.58007451298425</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2590,7 +2608,7 @@
         <v>1326.973702916569</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2607,7 +2625,7 @@
         <v>34042.6336933071</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2624,7 +2642,7 @@
         <v>2213.9183303594846</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2641,7 +2659,7 @@
         <v>5450.1826986690585</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2658,7 +2676,7 @@
         <v>1621.6878289161518</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2675,7 +2693,7 @@
         <v>22423.38689094421</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2692,7 +2710,7 @@
         <v>4343.5808892880195</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2709,7 +2727,7 @@
         <v>503.0222694586505</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2726,7 +2744,7 @@
         <v>1546.9798474270001</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2743,7 +2761,7 @@
         <v>4659.0618002800884</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2760,7 +2778,7 @@
         <v>18130.058742998655</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2777,7 +2795,7 @@
         <v>4140.9910755438968</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2794,7 +2812,7 @@
         <v>2338.8719385610252</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2811,7 +2829,7 @@
         <v>11250.22243340495</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2828,7 +2846,7 @@
         <v>364.98401582088326</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2845,7 +2863,7 @@
         <v>2256.3300080738099</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2862,7 +2880,7 @@
         <v>1073.0591575096166</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2879,7 +2897,7 @@
         <v>781.49807169907785</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2896,7 +2914,7 @@
         <v>5031.5522448545507</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2913,7 +2931,7 @@
         <v>866.43999698113305</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2930,7 +2948,7 @@
         <v>1068.3305406192551</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2947,7 +2965,7 @@
         <v>1864.0193821348064</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2964,7 +2982,7 @@
         <v>336.17401605642738</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2981,7 +2999,7 @@
         <v>5041.7243696111827</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2998,7 +3016,7 @@
         <v>949.24152722235397</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3015,7 +3033,7 @@
         <v>406.67024580255509</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3032,7 +3050,7 @@
         <v>1059.7699942351601</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3049,7 +3067,7 @@
         <v>1117.9242097663582</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3066,7 +3084,7 @@
         <v>5141.0410146140621</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3083,7 +3101,7 @@
         <v>1069.6147684716959</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3100,7 +3118,7 @@
         <v>3586.9760443073228</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3117,7 +3135,7 @@
         <v>320.74987486299972</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3134,7 +3152,7 @@
         <v>2458.4664508995352</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3151,7 +3169,7 @@
         <v>1762.2457104850914</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3168,7 +3186,7 @@
         <v>3984.001608206851</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3185,7 +3203,7 @@
         <v>3422.5802015844838</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3202,7 +3220,7 @@
         <v>2873.8233408414517</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3219,7 +3237,7 @@
         <v>300.00253814933006</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3236,7 +3254,7 @@
         <v>662.60312253192421</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3253,7 +3271,7 @@
         <v>501.1298135681991</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3270,7 +3288,7 @@
         <v>2061.9956308671253</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3287,7 +3305,7 @@
         <v>778.68616372192935</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3304,7 +3322,7 @@
         <v>2209.0094224547629</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3321,7 +3339,7 @@
         <v>710.86111450755277</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3338,7 +3356,7 @@
         <v>32560.654568485421</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3355,7 +3373,7 @@
         <v>12030.794633863788</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3372,7 +3390,7 @@
         <v>4628.2699521024442</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3389,7 +3407,7 @@
         <v>539.1062873912914</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3406,7 +3424,7 @@
         <v>3005.7152785954318</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3423,7 +3441,7 @@
         <v>632.77025593306166</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3440,7 +3458,7 @@
         <v>3804.6210415143555</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3457,7 +3475,7 @@
         <v>484.91257898963187</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3474,7 +3492,7 @@
         <v>462.94199849117621</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3491,7 +3509,7 @@
         <v>1608.2879883804158</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3508,7 +3526,7 @@
         <v>3874.3604859017473</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3525,7 +3543,7 @@
         <v>1863.8832872705061</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3558,13 +3576,13 @@
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>154</v>
       </c>
@@ -3578,7 +3596,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3592,7 +3610,7 @@
         <v>33278</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A34" si="0">+A2+1</f>
         <v>2</v>
@@ -3607,7 +3625,7 @@
         <v>73855</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3622,7 +3640,7 @@
         <v>38275</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3637,7 +3655,7 @@
         <v>33079</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3652,7 +3670,7 @@
         <v>119653</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3667,7 +3685,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3682,7 +3700,7 @@
         <v>21837</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3697,7 +3715,7 @@
         <v>31568</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3712,7 +3730,7 @@
         <v>4010</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3727,7 +3745,7 @@
         <v>27413</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3742,7 +3760,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3757,7 +3775,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3772,7 +3790,7 @@
         <v>4722</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3787,7 +3805,7 @@
         <v>52323</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3802,7 +3820,7 @@
         <v>32697</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3817,7 +3835,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3832,7 +3850,7 @@
         <v>45341</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3847,7 +3865,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3862,7 +3880,7 @@
         <v>14444</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3877,7 +3895,7 @@
         <v>5045</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3892,7 +3910,7 @@
         <v>8436</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3907,7 +3925,7 @@
         <v>23123</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3922,7 +3940,7 @@
         <v>24794</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3937,7 +3955,7 @@
         <v>43044</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3952,7 +3970,7 @@
         <v>335991</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3967,7 +3985,7 @@
         <v>15818</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3982,7 +4000,7 @@
         <v>30817</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3997,7 +4015,7 @@
         <v>326082</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4012,7 +4030,7 @@
         <v>7493</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4027,7 +4045,7 @@
         <v>13152</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4042,7 +4060,7 @@
         <v>6282</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4057,7 +4075,7 @@
         <v>28002</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4072,7 +4090,7 @@
         <v>22098</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f t="shared" ref="A35:A66" si="1">+A34+1</f>
         <v>34</v>
@@ -4087,7 +4105,7 @@
         <v>5629</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -4102,7 +4120,7 @@
         <v>18466</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -4117,7 +4135,7 @@
         <v>89336</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -4132,7 +4150,7 @@
         <v>84920</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -4147,7 +4165,7 @@
         <v>39888</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -4162,7 +4180,7 @@
         <v>6119</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -4177,7 +4195,7 @@
         <v>23155</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -4192,7 +4210,7 @@
         <v>36500</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -4207,7 +4225,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -4222,7 +4240,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -4237,7 +4255,7 @@
         <v>19057</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -4252,7 +4270,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -4267,7 +4285,7 @@
         <v>24153</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -4282,7 +4300,7 @@
         <v>38799</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -4297,7 +4315,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -4312,7 +4330,7 @@
         <v>11823</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -4327,7 +4345,7 @@
         <v>40754</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -4342,7 +4360,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -4357,7 +4375,7 @@
         <v>20773</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -4372,7 +4390,7 @@
         <v>9768</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -4387,7 +4405,7 @@
         <v>18308</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -4402,7 +4420,7 @@
         <v>6535</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -4417,7 +4435,7 @@
         <v>15233</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -4432,7 +4450,7 @@
         <v>15422</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -4447,7 +4465,7 @@
         <v>19837</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -4462,7 +4480,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -4477,7 +4495,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -4492,7 +4510,7 @@
         <v>20228</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -4507,7 +4525,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -4522,7 +4540,7 @@
         <v>10229</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -4537,7 +4555,7 @@
         <v>11124</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -4552,7 +4570,7 @@
         <v>16656</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <f t="shared" ref="A67:A98" si="2">+A66+1</f>
         <v>66</v>
@@ -4567,7 +4585,7 @@
         <v>26735</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -4582,7 +4600,7 @@
         <v>29514</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -4597,7 +4615,7 @@
         <v>4612</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -4612,7 +4630,7 @@
         <v>8333</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -4627,7 +4645,7 @@
         <v>6167</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -4642,7 +4660,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -4657,7 +4675,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -4672,7 +4690,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -4687,7 +4705,7 @@
         <v>13765</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -4702,7 +4720,7 @@
         <v>12737</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -4717,7 +4735,7 @@
         <v>28123</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -4732,7 +4750,7 @@
         <v>15717</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -4747,7 +4765,7 @@
         <v>15650</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -4762,7 +4780,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -4777,7 +4795,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -4792,7 +4810,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -4807,7 +4825,7 @@
         <v>14454</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -4822,7 +4840,7 @@
         <v>13258</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -4837,7 +4855,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -4852,7 +4870,7 @@
         <v>38432</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -4867,7 +4885,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -4882,7 +4900,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -4897,7 +4915,7 @@
         <v>38014</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -4912,7 +4930,7 @@
         <v>5112</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -4927,7 +4945,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -4942,7 +4960,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -4957,7 +4975,7 @@
         <v>4815</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -4972,7 +4990,7 @@
         <v>4033</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -4987,7 +5005,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -5002,7 +5020,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -5017,7 +5035,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -5032,7 +5050,7 @@
         <v>16215</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <f t="shared" ref="A99:A130" si="3">+A98+1</f>
         <v>98</v>
@@ -5047,7 +5065,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -5062,7 +5080,7 @@
         <v>14683</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -5077,7 +5095,7 @@
         <v>30760</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -5092,7 +5110,7 @@
         <v>19320</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -5107,7 +5125,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -5122,7 +5140,7 @@
         <v>18057</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -5137,7 +5155,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -5152,7 +5170,7 @@
         <v>20303</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -5167,7 +5185,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -5182,7 +5200,7 @@
         <v>26544</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -5197,7 +5215,7 @@
         <v>22802</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -5212,7 +5230,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -5227,7 +5245,7 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -5242,7 +5260,7 @@
         <v>7067</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -5257,7 +5275,7 @@
         <v>4532</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -5272,7 +5290,7 @@
         <v>20160</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -5287,7 +5305,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -5302,7 +5320,7 @@
         <v>10173</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -5317,7 +5335,7 @@
         <v>18067</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -5332,7 +5350,7 @@
         <v>18016</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -5347,7 +5365,7 @@
         <v>8011</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -5362,7 +5380,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -5377,7 +5395,7 @@
         <v>40796</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -5392,7 +5410,7 @@
         <v>17659</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -5407,7 +5425,7 @@
         <v>5098</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -5422,7 +5440,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -5437,7 +5455,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -5452,7 +5470,7 @@
         <v>11929</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -5467,7 +5485,7 @@
         <v>17305</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -5482,7 +5500,7 @@
         <v>17999</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -5497,7 +5515,7 @@
         <v>9113</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <f t="shared" si="3"/>
         <v>129</v>
@@ -5512,7 +5530,7 @@
         <v>32163</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <f t="shared" ref="A131:A156" si="4">+A130+1</f>
         <v>130</v>
@@ -5527,7 +5545,7 @@
         <v>5591</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <f t="shared" si="4"/>
         <v>131</v>
@@ -5542,7 +5560,7 @@
         <v>26101</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <f t="shared" si="4"/>
         <v>132</v>
@@ -5557,7 +5575,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <f t="shared" si="4"/>
         <v>133</v>
@@ -5572,7 +5590,7 @@
         <v>4602</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <f t="shared" si="4"/>
         <v>134</v>
@@ -5587,7 +5605,7 @@
         <v>4034</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <f t="shared" si="4"/>
         <v>135</v>
@@ -5602,7 +5620,7 @@
         <v>6098</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <f t="shared" si="4"/>
         <v>136</v>
@@ -5617,7 +5635,7 @@
         <v>6178</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <f t="shared" si="4"/>
         <v>137</v>
@@ -5632,7 +5650,7 @@
         <v>16779</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -5647,7 +5665,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <f t="shared" si="4"/>
         <v>139</v>
@@ -5662,7 +5680,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <f t="shared" si="4"/>
         <v>140</v>
@@ -5677,7 +5695,7 @@
         <v>26414</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <f t="shared" si="4"/>
         <v>141</v>
@@ -5692,7 +5710,7 @@
         <v>6102</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <f t="shared" si="4"/>
         <v>142</v>
@@ -5707,7 +5725,7 @@
         <v>4545</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <f t="shared" si="4"/>
         <v>143</v>
@@ -5722,7 +5740,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <f t="shared" si="4"/>
         <v>144</v>
@@ -5737,7 +5755,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <f t="shared" si="4"/>
         <v>145</v>
@@ -5752,7 +5770,7 @@
         <v>8577</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <f t="shared" si="4"/>
         <v>146</v>
@@ -5767,7 +5785,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <f t="shared" si="4"/>
         <v>147</v>
@@ -5782,7 +5800,7 @@
         <v>10187</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <f t="shared" si="4"/>
         <v>148</v>
@@ -5797,7 +5815,7 @@
         <v>8740</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <f t="shared" si="4"/>
         <v>149</v>
@@ -5812,7 +5830,7 @@
         <v>5224</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <f t="shared" si="4"/>
         <v>150</v>
@@ -5827,7 +5845,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <f t="shared" si="4"/>
         <v>151</v>
@@ -5842,7 +5860,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <f t="shared" si="4"/>
         <v>152</v>
@@ -5857,7 +5875,7 @@
         <v>29448</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <f t="shared" si="4"/>
         <v>153</v>
@@ -5872,7 +5890,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <f t="shared" si="4"/>
         <v>154</v>
@@ -5887,7 +5905,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <f t="shared" si="4"/>
         <v>155</v>
@@ -5902,7 +5920,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C157" s="6"/>
     </row>
   </sheetData>
@@ -5913,57 +5931,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/data/trust_score_ranking.xlsx
+++ b/data/trust_score_ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victor/Documents/Projects/Game-Theory-and-Social-Norms-Slides/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8024150D-6D5D-4447-A3B8-204D2C07A247}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A908891-D26B-9844-B1F3-054A12A83C90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,13 +557,13 @@
     <t>trust</t>
   </si>
   <si>
-    <t>petrol</t>
-  </si>
-  <si>
     <t>Columns:</t>
   </si>
   <si>
     <t>gdp</t>
+  </si>
+  <si>
+    <t>oil</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1021,10 +1021,10 @@
         <v>173</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5934,7 +5934,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
